--- a/parameter_list/Kmeans+parameterTuning.xlsx
+++ b/parameter_list/Kmeans+parameterTuning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>calinski_harabasz_score</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>davies_bouldin_score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>parameters_combinations</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rank</t>
         </is>
       </c>
     </row>
@@ -462,15 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C2" t="inlineStr">
+        <v>0.3766567079329369</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9447.999930488908</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8959197408665087</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>"3,k-means++,10,100"</t>
         </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -480,15 +488,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>"3,random,10,200"</t>
-        </is>
+        <v>0.376994332359169</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9448.3415633487</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0.894767413304168</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,200"</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -500,13 +511,16 @@
       <c r="B4" t="n">
         <v>0.376669363592874</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>"3,random,30,300"</t>
-        </is>
+      <c r="C4" t="n">
+        <v>9448.325128647333</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0.8958410436676622</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,300"</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -516,15 +530,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,200"</t>
-        </is>
+        <v>0.3767899987824931</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9448.503812448505</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>0.8954373672602646</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,100"</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -536,13 +553,16 @@
       <c r="B6" t="n">
         <v>0.376669363592874</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>"3,random,30,100"</t>
-        </is>
+      <c r="C6" t="n">
+        <v>9448.325128647333</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>0.8958410436676622</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,200"</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -552,15 +572,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>"3,random,20,300"</t>
-        </is>
+        <v>0.3768223480895054</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9448.575086688112</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0.8952755889252725</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,300"</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -570,15 +593,18 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>"3,random,20,200"</t>
-        </is>
+        <v>0.3769986061282377</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9448.498709477648</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>0.89482067748883</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,100"</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -588,15 +614,18 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>"3,random,20,100"</t>
-        </is>
+        <v>0.3768085062585488</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9448.583216058687</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>0.8953796930300051</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,200"</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -606,15 +635,18 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>"3,random,10,300"</t>
-        </is>
+        <v>0.3767561421469561</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9448.573642333413</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>0.8955473080013698</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,300"</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -624,15 +656,18 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>"3,random,30,200"</t>
-        </is>
+        <v>0.3768085062585488</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9448.583216058687</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>0.8953796930300051</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>"3,random,10,100"</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -642,15 +677,18 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>"3,random,10,100"</t>
-        </is>
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9448.294459292751</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>0.8957947661423153</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>"3,random,10,200"</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -660,15 +698,18 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,200"</t>
-        </is>
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9448.294459292752</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>0.8957947661423155</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>"3,random,10,300"</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -678,15 +719,18 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,100"</t>
-        </is>
+        <v>0.3767899987824931</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9448.503812448505</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>0.8954373672602646</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>"3,random,20,100"</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -696,15 +740,18 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,300"</t>
-        </is>
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9448.294459292751</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>0.8957947661423153</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>"3,random,20,200"</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -714,15 +761,18 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,200"</t>
-        </is>
+        <v>0.37676918684481</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9448.583584290522</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>0.8954376787801639</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>"3,random,20,300"</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -732,15 +782,18 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,100"</t>
-        </is>
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9448.294459292751</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>0.8957947661423153</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>"3,random,30,100"</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -750,15 +803,18 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,300"</t>
-        </is>
+        <v>0.3767793236760318</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9448.581739510217</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>0.8954319860177004</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>"3,random,30,200"</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -768,987 +824,1152 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,300"</t>
-        </is>
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9448.294459292752</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>0.8957947661423155</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>"3,random,30,300"</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3628509336519437</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>"3,random,10,100"</t>
-        </is>
+        <v>0.3496396044101032</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7117.396790381685</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9651314334555479</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,100"</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3628509336519437</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>"3,random,10,200"</t>
-        </is>
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7117.340630325645</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0.9655708227292391</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,200"</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3628509336519437</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>"3,random,10,300"</t>
-        </is>
+        <v>0.3495322611474688</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7117.426120817008</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>0.9655255749523487</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,300"</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3628398698632407</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>"3,random,20,100"</t>
-        </is>
+        <v>0.3489740215292905</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7117.422071153889</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>0.9654592741915753</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,100"</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3628398698632407</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>"3,random,20,300"</t>
-        </is>
+        <v>0.349401692470503</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7117.446450566087</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>0.9656307387971875</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,200"</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3628398698632407</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>"3,random,20,200"</t>
-        </is>
+        <v>0.3489006087261337</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7117.426884163112</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>0.9656053114416552</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,300"</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3627829376914716</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>"3,random,30,100"</t>
-        </is>
+        <v>0.3494619927286358</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7117.434790982315</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>0.9655770621014202</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,100"</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3627829376914716</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>"3,random,30,200"</t>
-        </is>
+        <v>0.3489561726488684</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7117.433732736101</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>0.9656540510444342</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,200"</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3627829376914716</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>"3,random,30,300"</t>
-        </is>
+        <v>0.3489137783603128</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7117.400495046108</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>0.9653467451304157</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,300"</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.362743493861282</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,300"</t>
-        </is>
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7117.340630325645</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>0.9655708227292393</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>"3,random,10,100"</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.362743493861282</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,200"</t>
-        </is>
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7117.340630325645</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>0.9655708227292393</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>"3,random,10,200"</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.362743493861282</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,100"</t>
-        </is>
+        <v>0.3497061194712475</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7117.385979498611</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>0.9650137202011996</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>"3,random,10,300"</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3626405706336063</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,300"</t>
-        </is>
+        <v>0.3489277155294992</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7117.418739051684</v>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>0.9654678200104702</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>"3,random,20,100"</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3626405706336063</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,200"</t>
-        </is>
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7117.340630325645</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
+        <v>0.9655708227292391</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>"3,random,20,200"</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3626405706336063</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,100"</t>
-        </is>
+        <v>0.3489238948963557</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7117.413392270684</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>0.9654769774796045</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>"3,random,20,300"</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.36259205267132</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,100"</t>
-        </is>
+        <v>0.3490470610999523</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7117.432574564892</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>0.9659244118901107</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>"3,random,30,100"</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.36259205267132</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,200"</t>
-        </is>
+        <v>0.3489360538394968</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7117.443481704202</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>0.9656635490989528</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>"3,random,30,200"</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.36259205267132</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,300"</t>
-        </is>
+        <v>0.3495514070161421</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7117.425649750117</v>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>0.965504817870818</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>"3,random,30,300"</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3593303581717584</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>"3,random,10,100"</t>
-        </is>
+        <v>0.3627336405221844</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10285.91943324416</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.9097892345487372</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,100"</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3593303581717584</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>"3,random,10,300"</t>
-        </is>
+        <v>0.3628164125744278</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10285.91087986115</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>0.9095970363891315</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,200"</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3593303581717584</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>"3,random,10,200"</t>
-        </is>
+        <v>0.3627664991747843</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10285.9537882868</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>0.9098576477711365</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,300"</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,300"</t>
-        </is>
+        <v>0.3628247114288974</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10285.78848195616</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>0.9100844139546987</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,100"</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C42" t="inlineStr">
+        <v>0.3626532029855691</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10285.97509277443</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9101977893148897</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>"3,k-means++,20,200"</t>
         </is>
-      </c>
-      <c r="D42" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,100"</t>
-        </is>
+        <v>0.3627427137597053</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10285.96026491503</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>0.9098617472057161</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,300"</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,300"</t>
-        </is>
+        <v>0.3628255969156468</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10285.89139334379</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>0.9095905158840883</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,100"</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,200"</t>
-        </is>
+        <v>0.3627043501358218</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10285.95240662062</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>0.9102835012504294</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,200"</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,100"</t>
-        </is>
+        <v>0.3627198963377938</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10285.83650761166</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>0.9101755221464854</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,300"</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,200"</t>
-        </is>
+        <v>0.3628099468414178</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10285.85706729717</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>0.9094978718414919</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>"3,random,10,100"</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,100"</t>
-        </is>
+        <v>0.3628164232590662</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10285.84326553978</v>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>0.9096570851693766</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>"3,random,10,200"</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3590680407366058</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,300"</t>
-        </is>
+        <v>0.3628404042646702</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10285.78900930607</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>0.909564808829233</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>"3,random,10,300"</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3563214923334739</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>"3,random,30,300"</t>
-        </is>
+        <v>0.3628027174852865</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10285.61479859769</v>
       </c>
       <c r="D50" t="n">
-        <v>13</v>
+        <v>0.909396075791672</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>"3,random,20,100"</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3563214923334739</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>"3,random,20,100"</t>
-        </is>
+        <v>0.3627314260435232</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10285.83749769226</v>
       </c>
       <c r="D51" t="n">
-        <v>14</v>
+        <v>0.9096773241812898</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>"3,random,20,200"</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3563214923334739</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>"3,random,20,200"</t>
-        </is>
+        <v>0.3628329202307078</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10285.51199294181</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>0.909417373877612</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>"3,random,20,300"</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3563214923334739</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>"3,random,20,300"</t>
-        </is>
+        <v>0.3627349759604622</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10285.96432062172</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>0.9098876421786196</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>"3,random,30,100"</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3563214923334739</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>"3,random,30,100"</t>
-        </is>
+        <v>0.3627989112646496</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10285.83843801951</v>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>0.9095047890255484</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>"3,random,30,200"</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3563214923334739</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>"3,random,30,200"</t>
-        </is>
+        <v>0.3629129277525999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10285.67261858242</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>0.9092167083752128</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>"3,random,30,300"</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3494856417263293</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,200"</t>
-        </is>
+        <v>0.3572481571728066</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7535.989314601084</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9787620727361608</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,100"</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3494856417263293</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,100"</t>
-        </is>
+        <v>0.3563958509087725</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7535.754994029628</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>0.9818515798370419</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,200"</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3494856417263293</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>"3,k-means++,20,300"</t>
-        </is>
+        <v>0.3447991725122933</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7534.419270916664</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>0.9961367605819355</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>"3,k-means++,10,300"</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3494856417263293</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,100"</t>
-        </is>
+        <v>0.3547123395437153</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7534.434955982757</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>0.9840579477024506</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,100"</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3494856417263293</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,300"</t>
-        </is>
+        <v>0.360508856663767</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7535.576466550686</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>0.9709372989760077</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,200"</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3494856417263293</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>"3,k-means++,30,200"</t>
-        </is>
+        <v>0.3596691321008563</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7536.119809738041</v>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>0.9724533293348698</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>"3,k-means++,20,300"</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3490935431996623</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,200"</t>
-        </is>
+        <v>0.3544889277938882</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7535.352422799164</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>0.9849491905575846</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,100"</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3490935431996623</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,100"</t>
-        </is>
+        <v>0.3605700334470633</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7535.917634020783</v>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>0.9706323901796843</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,200"</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3490935431996623</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>"3,k-means++,10,300"</t>
-        </is>
+        <v>0.3420624467291535</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7532.204620255461</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>0.9955725687575199</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>"3,k-means++,30,300"</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3489322655154462</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>"3,random,30,200"</t>
-        </is>
+        <v>0.3613760395892844</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7532.079191379241</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>0.967162572742148</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>"3,random,10,100"</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3489322655154462</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>"3,random,20,100"</t>
-        </is>
+        <v>0.3438576704561828</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7533.876734093132</v>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>0.9973259579613094</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>"3,random,10,200"</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3489322655154462</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>"3,random,20,200"</t>
-        </is>
+        <v>0.3613760395892844</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7532.079191379241</v>
       </c>
       <c r="D67" t="n">
-        <v>12</v>
+        <v>0.967162572742148</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>"3,random,10,300"</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.3489322655154462</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>"3,random,20,300"</t>
-        </is>
+        <v>0.3567214413461219</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7535.996133403685</v>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>0.9795218629673498</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>"3,random,20,100"</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3489322655154462</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>"3,random,30,300"</t>
-        </is>
+        <v>0.360085628245041</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7535.960687189034</v>
       </c>
       <c r="D69" t="n">
-        <v>14</v>
+        <v>0.9716973865005016</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>"3,random,20,200"</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3489322655154462</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>"3,random,30,100"</t>
-        </is>
+        <v>0.3607209940512984</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7535.567319334814</v>
       </c>
       <c r="D70" t="n">
-        <v>15</v>
+        <v>0.9705678729267585</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>"3,random,20,300"</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.3488410157371108</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>"3,random,10,100"</t>
-        </is>
+        <v>0.3600646962955279</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7536.078830559411</v>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>0.9717799415811784</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>"3,random,30,100"</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3488410157371108</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>"3,random,10,200"</t>
-        </is>
+        <v>0.3562187488027616</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7536.205911986191</v>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>0.9808584230305804</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>"3,random,30,200"</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>eval_datasets/test_2_eval.xlsx</t>
+          <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3488410157371108</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>"3,random,10,300"</t>
-        </is>
+        <v>0.3592398161647672</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7536.15175344827</v>
       </c>
       <c r="D73" t="n">
-        <v>18</v>
+        <v>0.9734378657709316</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>"3,random,30,300"</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/parameter_list/Kmeans+parameterTuning.xlsx
+++ b/parameter_list/Kmeans+parameterTuning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>n_clusters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>init</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n_init</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>silhouette_score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>calinski_harabasz_score</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>davies_bouldin_score</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>parameters_combinations</t>
         </is>
@@ -467,15 +487,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3766567079329369</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9447.999930488908</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8959197408665087</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9448.294459292752</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8957947661423155</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>"3,k-means++,10,100"</t>
         </is>
@@ -488,15 +522,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.376994332359169</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9448.3415633487</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>0.894767413304168</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3766922179176568</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9448.26846380636</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8957994047607311</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>"3,k-means++,10,200"</t>
         </is>
@@ -509,15 +557,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.376669363592874</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9448.325128647333</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8958410436676622</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>300</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9448.294459292751</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8957947661423153</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>"3,k-means++,10,300"</t>
         </is>
@@ -530,15 +592,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3767899987824931</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9448.503812448505</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8954373672602646</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3769565250178962</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9448.595252823987</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8949476306906702</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>"3,k-means++,20,100"</t>
         </is>
@@ -551,15 +627,29 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.376669363592874</v>
       </c>
-      <c r="C6" t="n">
+      <c r="G6" t="n">
         <v>9448.325128647333</v>
       </c>
-      <c r="D6" t="n">
+      <c r="H6" t="n">
         <v>0.8958410436676622</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>"3,k-means++,20,200"</t>
         </is>
@@ -572,15 +662,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3768223480895054</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9448.575086688112</v>
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8952755889252725</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>300</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.376777309080705</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9448.548467830937</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.89551650631393</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>"3,k-means++,20,300"</t>
         </is>
@@ -593,15 +697,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3769986061282377</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9448.498709477648</v>
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>0.89482067748883</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3768085062585488</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9448.583216058687</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8953796930300051</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>"3,k-means++,30,100"</t>
         </is>
@@ -614,15 +732,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3768085062585488</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9448.583216058687</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8953796930300051</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>200</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3769685857367284</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9448.35451400133</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.894842709464596</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>"3,k-means++,30,200"</t>
         </is>
@@ -635,15 +767,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3767561421469561</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9448.573642333413</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8955473080013698</v>
-      </c>
-      <c r="E10" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
+        <v>300</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3766790530226895</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9448.516447442684</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8958105066837696</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>"3,k-means++,30,300"</t>
         </is>
@@ -656,15 +802,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3768085062585488</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9448.583216058687</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8953796930300051</v>
-      </c>
-      <c r="E11" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.376669363592874</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9448.325128647333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8958410436676622</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>"3,random,10,100"</t>
         </is>
@@ -677,15 +837,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3766761268391582</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9448.294459292751</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8957947661423153</v>
-      </c>
-      <c r="E12" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>200</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.376669363592874</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9448.325128647333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8958410436676622</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>"3,random,10,200"</t>
         </is>
@@ -698,15 +872,29 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>300</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.3766761268391582</v>
       </c>
-      <c r="C13" t="n">
+      <c r="G13" t="n">
         <v>9448.294459292752</v>
       </c>
-      <c r="D13" t="n">
+      <c r="H13" t="n">
         <v>0.8957947661423155</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>"3,random,10,300"</t>
         </is>
@@ -719,15 +907,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3767899987824931</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9448.503812448505</v>
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8954373672602646</v>
-      </c>
-      <c r="E14" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9448.294459292752</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8957947661423155</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>"3,random,20,100"</t>
         </is>
@@ -740,15 +942,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3766761268391582</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9448.294459292751</v>
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8957947661423153</v>
-      </c>
-      <c r="E15" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>200</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3768749717126821</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9448.593375681867</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8951003658446099</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>"3,random,20,200"</t>
         </is>
@@ -761,15 +977,29 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.37676918684481</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9448.583584290522</v>
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8954376787801639</v>
-      </c>
-      <c r="E16" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>300</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3766761268391582</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9448.294459292752</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8957947661423155</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>"3,random,20,300"</t>
         </is>
@@ -782,15 +1012,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3766761268391582</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9448.294459292751</v>
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8957947661423153</v>
-      </c>
-      <c r="E17" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3767899987824931</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9448.503812448505</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8954373672602646</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>"3,random,30,100"</t>
         </is>
@@ -803,15 +1047,29 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3767793236760318</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9448.581739510217</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8954319860177004</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E18" t="n">
+        <v>200</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3768632420246217</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9448.583365919012</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8953216256220086</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>"3,random,30,200"</t>
         </is>
@@ -824,15 +1082,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3766761268391582</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9448.294459292752</v>
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8957947661423155</v>
-      </c>
-      <c r="E19" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E19" t="n">
+        <v>300</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3767743746448558</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9448.501462793341</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.895475140517454</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>"3,random,30,300"</t>
         </is>
@@ -845,15 +1117,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3496396044101032</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7117.396790381685</v>
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9651314334555479</v>
-      </c>
-      <c r="E20" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7117.340630325645</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9655708227292391</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>"3,k-means++,10,100"</t>
         </is>
@@ -866,15 +1152,29 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>200</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.3491266123893725</v>
       </c>
-      <c r="C21" t="n">
+      <c r="G21" t="n">
         <v>7117.340630325645</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.9655708227292391</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>0.9655708227292393</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>"3,k-means++,10,200"</t>
         </is>
@@ -887,15 +1187,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3495322611474688</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7117.426120817008</v>
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9655255749523487</v>
-      </c>
-      <c r="E22" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>300</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7117.340630325645</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9655708227292393</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>"3,k-means++,10,300"</t>
         </is>
@@ -908,15 +1222,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3489740215292905</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7117.422071153889</v>
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9654592741915753</v>
-      </c>
-      <c r="E23" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3489577599625682</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7117.410816889067</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9653106988455559</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>"3,k-means++,20,100"</t>
         </is>
@@ -929,15 +1257,29 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.349401692470503</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7117.446450566087</v>
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9656307387971875</v>
-      </c>
-      <c r="E24" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>200</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7117.340630325645</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9655708227292391</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>"3,k-means++,20,200"</t>
         </is>
@@ -950,15 +1292,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3489006087261337</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7117.426884163112</v>
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9656053114416552</v>
-      </c>
-      <c r="E25" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>300</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3489044552402332</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7117.431712812849</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9655961770905158</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>"3,k-means++,20,300"</t>
         </is>
@@ -971,15 +1327,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3494619927286358</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7117.434790982315</v>
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9655770621014202</v>
-      </c>
-      <c r="E26" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.349131351701692</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7117.364198770087</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9655926945673531</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>"3,k-means++,30,100"</t>
         </is>
@@ -992,15 +1362,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3489561726488684</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7117.433732736101</v>
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9656540510444342</v>
-      </c>
-      <c r="E27" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E27" t="n">
+        <v>200</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7117.340630325645</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9655708227292393</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>"3,k-means++,30,200"</t>
         </is>
@@ -1013,15 +1397,29 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3489137783603128</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7117.400495046108</v>
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9653467451304157</v>
-      </c>
-      <c r="E28" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E28" t="n">
+        <v>300</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3489547396532376</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7117.449904840822</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.965778762101453</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>"3,k-means++,30,300"</t>
         </is>
@@ -1034,15 +1432,29 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3491266123893725</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7117.340630325645</v>
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9655708227292393</v>
-      </c>
-      <c r="E29" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3490629677461028</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7117.383484650276</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9652385456772691</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>"3,random,10,100"</t>
         </is>
@@ -1055,15 +1467,29 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3491266123893725</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7117.340630325645</v>
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9655708227292393</v>
-      </c>
-      <c r="E30" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>200</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3490935431996623</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7117.321592377949</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9655952295184839</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>"3,random,10,200"</t>
         </is>
@@ -1076,15 +1502,29 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3497061194712475</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7117.385979498611</v>
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9650137202011996</v>
-      </c>
-      <c r="E31" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>300</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3489137783603128</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7117.400495046107</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9653467451304157</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>"3,random,10,300"</t>
         </is>
@@ -1097,15 +1537,29 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3489277155294992</v>
-      </c>
-      <c r="C32" t="n">
-        <v>7117.418739051684</v>
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9654678200104702</v>
-      </c>
-      <c r="E32" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7117.340630325645</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9655708227292391</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>"3,random,20,100"</t>
         </is>
@@ -1118,15 +1572,29 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3491266123893725</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7117.340630325645</v>
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9655708227292391</v>
-      </c>
-      <c r="E33" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E33" t="n">
+        <v>200</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3489137783603128</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7117.400495046106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9653467451304157</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>"3,random,20,200"</t>
         </is>
@@ -1139,15 +1607,29 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3489238948963557</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7117.413392270684</v>
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9654769774796045</v>
-      </c>
-      <c r="E34" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E34" t="n">
+        <v>300</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7117.340630325645</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9655708227292393</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>"3,random,20,300"</t>
         </is>
@@ -1160,15 +1642,29 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3490470610999523</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7117.432574564892</v>
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9659244118901107</v>
-      </c>
-      <c r="E35" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3491266123893725</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7117.340630325645</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9655708227292391</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>"3,random,30,100"</t>
         </is>
@@ -1181,15 +1677,29 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3489360538394968</v>
-      </c>
-      <c r="C36" t="n">
-        <v>7117.443481704202</v>
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9656635490989528</v>
-      </c>
-      <c r="E36" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E36" t="n">
+        <v>200</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3489577599625682</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7117.410816889067</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9653106988455559</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>"3,random,30,200"</t>
         </is>
@@ -1202,15 +1712,29 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3495514070161421</v>
-      </c>
-      <c r="C37" t="n">
-        <v>7117.425649750117</v>
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D37" t="n">
-        <v>0.965504817870818</v>
-      </c>
-      <c r="E37" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E37" t="n">
+        <v>300</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3496782141761411</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7117.373803373914</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9652535632153483</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>"3,random,30,300"</t>
         </is>
@@ -1223,15 +1747,29 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3627336405221844</v>
-      </c>
-      <c r="C38" t="n">
-        <v>10285.91943324416</v>
+        <v>3</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9097892345487372</v>
-      </c>
-      <c r="E38" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3628045486305177</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10285.54452660558</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9093345377152725</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>"3,k-means++,10,100"</t>
         </is>
@@ -1244,15 +1782,29 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3628164125744278</v>
-      </c>
-      <c r="C39" t="n">
-        <v>10285.91087986115</v>
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9095970363891315</v>
-      </c>
-      <c r="E39" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>200</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3627913551186936</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10285.87002301356</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9098809296650564</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>"3,k-means++,10,200"</t>
         </is>
@@ -1265,15 +1817,29 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3627664991747843</v>
-      </c>
-      <c r="C40" t="n">
-        <v>10285.9537882868</v>
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9098576477711365</v>
-      </c>
-      <c r="E40" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>300</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3628626479066698</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10285.46538931117</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9093374312263695</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>"3,k-means++,10,300"</t>
         </is>
@@ -1286,15 +1852,29 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3628247114288974</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10285.78848195616</v>
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9100844139546987</v>
-      </c>
-      <c r="E41" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3627195226951265</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10285.91629529815</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9098072902070337</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>"3,k-means++,20,100"</t>
         </is>
@@ -1307,15 +1887,29 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3626532029855691</v>
-      </c>
-      <c r="C42" t="n">
-        <v>10285.97509277443</v>
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9101977893148897</v>
-      </c>
-      <c r="E42" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>200</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.362610218783187</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10285.95680989215</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9101809081457475</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>"3,k-means++,20,200"</t>
         </is>
@@ -1328,15 +1922,29 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3627427137597053</v>
-      </c>
-      <c r="C43" t="n">
-        <v>10285.96026491503</v>
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9098617472057161</v>
-      </c>
-      <c r="E43" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E43" t="n">
+        <v>300</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3627384818566243</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10285.97297048179</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9099491101611691</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>"3,k-means++,20,300"</t>
         </is>
@@ -1349,15 +1957,29 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3628255969156468</v>
-      </c>
-      <c r="C44" t="n">
-        <v>10285.89139334379</v>
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9095905158840883</v>
-      </c>
-      <c r="E44" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.3627104699118363</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10285.84739505153</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9103253412226179</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>"3,k-means++,30,100"</t>
         </is>
@@ -1370,15 +1992,29 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3627043501358218</v>
-      </c>
-      <c r="C45" t="n">
-        <v>10285.95240662062</v>
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9102835012504294</v>
-      </c>
-      <c r="E45" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E45" t="n">
+        <v>200</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3627878647671002</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10285.80380018908</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9094858422732705</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>"3,k-means++,30,200"</t>
         </is>
@@ -1391,15 +2027,29 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3627198963377938</v>
-      </c>
-      <c r="C46" t="n">
-        <v>10285.83650761166</v>
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9101755221464854</v>
-      </c>
-      <c r="E46" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E46" t="n">
+        <v>300</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.3627557740974703</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10285.82954677529</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9096015660396178</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>"3,k-means++,30,300"</t>
         </is>
@@ -1412,15 +2062,29 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3628099468414178</v>
-      </c>
-      <c r="C47" t="n">
-        <v>10285.85706729717</v>
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9094978718414919</v>
-      </c>
-      <c r="E47" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.3627937653046877</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10285.94455270009</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9098311094988668</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>"3,random,10,100"</t>
         </is>
@@ -1433,15 +2097,29 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3628164232590662</v>
-      </c>
-      <c r="C48" t="n">
-        <v>10285.84326553978</v>
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9096570851693766</v>
-      </c>
-      <c r="E48" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>200</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.3628099468414178</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10285.85706729717</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9094978718414919</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>"3,random,10,200"</t>
         </is>
@@ -1454,15 +2132,29 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3628404042646702</v>
-      </c>
-      <c r="C49" t="n">
-        <v>10285.78900930607</v>
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D49" t="n">
-        <v>0.909564808829233</v>
-      </c>
-      <c r="E49" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>300</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.3626699789577795</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10285.86593041972</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9098771769696973</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>"3,random,10,300"</t>
         </is>
@@ -1475,15 +2167,29 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3628027174852865</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10285.61479859769</v>
+        <v>3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D50" t="n">
-        <v>0.909396075791672</v>
-      </c>
-      <c r="E50" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.3625326000026612</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10285.84541443634</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9106441495703756</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>"3,random,20,100"</t>
         </is>
@@ -1496,15 +2202,29 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3627314260435232</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10285.83749769226</v>
+        <v>3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D51" t="n">
-        <v>0.9096773241812898</v>
-      </c>
-      <c r="E51" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>200</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3628199523054311</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10285.86307950032</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9094876234593556</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>"3,random,20,200"</t>
         </is>
@@ -1517,15 +2237,29 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3628329202307078</v>
-      </c>
-      <c r="C52" t="n">
-        <v>10285.51199294181</v>
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D52" t="n">
-        <v>0.909417373877612</v>
-      </c>
-      <c r="E52" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>300</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.3626051204059485</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10285.97791065193</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9103723046405432</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>"3,random,20,300"</t>
         </is>
@@ -1538,15 +2272,29 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3627349759604622</v>
-      </c>
-      <c r="C53" t="n">
-        <v>10285.96432062172</v>
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D53" t="n">
-        <v>0.9098876421786196</v>
-      </c>
-      <c r="E53" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E53" t="n">
+        <v>100</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.3626313986492509</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10285.98780611242</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9101418087295707</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>"3,random,30,100"</t>
         </is>
@@ -1559,15 +2307,29 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3627989112646496</v>
-      </c>
-      <c r="C54" t="n">
-        <v>10285.83843801951</v>
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D54" t="n">
-        <v>0.9095047890255484</v>
-      </c>
-      <c r="E54" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E54" t="n">
+        <v>200</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.3626784995675565</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10285.87605884926</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9098523291205146</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>"3,random,30,200"</t>
         </is>
@@ -1580,15 +2342,29 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3629129277525999</v>
-      </c>
-      <c r="C55" t="n">
-        <v>10285.67261858242</v>
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D55" t="n">
-        <v>0.9092167083752128</v>
-      </c>
-      <c r="E55" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E55" t="n">
+        <v>300</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3627362961868959</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10285.9131768231</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9102233836065521</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>"3,random,30,300"</t>
         </is>
@@ -1601,15 +2377,29 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3572481571728066</v>
-      </c>
-      <c r="C56" t="n">
-        <v>7535.989314601084</v>
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D56" t="n">
-        <v>0.9787620727361608</v>
-      </c>
-      <c r="E56" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>100</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3613998039801843</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7531.943088879835</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9670282799941251</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>"3,k-means++,10,100"</t>
         </is>
@@ -1622,15 +2412,29 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3563958509087725</v>
-      </c>
-      <c r="C57" t="n">
-        <v>7535.754994029628</v>
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9818515798370419</v>
-      </c>
-      <c r="E57" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>200</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.3564755381088829</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7536.009958946144</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9795891578313377</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>"3,k-means++,10,200"</t>
         </is>
@@ -1643,15 +2447,29 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3447991725122933</v>
-      </c>
-      <c r="C58" t="n">
-        <v>7534.419270916664</v>
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D58" t="n">
-        <v>0.9961367605819355</v>
-      </c>
-      <c r="E58" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>300</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3564569459756522</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7535.734808176452</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.981791447832375</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>"3,k-means++,10,300"</t>
         </is>
@@ -1664,15 +2482,29 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3547123395437153</v>
-      </c>
-      <c r="C59" t="n">
-        <v>7534.434955982757</v>
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D59" t="n">
-        <v>0.9840579477024506</v>
-      </c>
-      <c r="E59" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E59" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3593765636343057</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7536.165240052514</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9730446671507634</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>"3,k-means++,20,100"</t>
         </is>
@@ -1685,15 +2517,29 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.360508856663767</v>
-      </c>
-      <c r="C60" t="n">
-        <v>7535.576466550686</v>
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D60" t="n">
-        <v>0.9709372989760077</v>
-      </c>
-      <c r="E60" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>200</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3577246262874071</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7535.952025489324</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9771880740289064</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>"3,k-means++,20,200"</t>
         </is>
@@ -1706,15 +2552,29 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3596691321008563</v>
-      </c>
-      <c r="C61" t="n">
-        <v>7536.119809738041</v>
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D61" t="n">
-        <v>0.9724533293348698</v>
-      </c>
-      <c r="E61" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E61" t="n">
+        <v>300</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.3440288445015656</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7534.169992912841</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9969034491386136</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>"3,k-means++,20,300"</t>
         </is>
@@ -1727,15 +2587,29 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3544889277938882</v>
-      </c>
-      <c r="C62" t="n">
-        <v>7535.352422799164</v>
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D62" t="n">
-        <v>0.9849491905575846</v>
-      </c>
-      <c r="E62" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.359599538970185</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7536.03627768864</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9725819280300397</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>"3,k-means++,30,100"</t>
         </is>
@@ -1748,15 +2622,29 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3605700334470633</v>
-      </c>
-      <c r="C63" t="n">
-        <v>7535.917634020783</v>
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D63" t="n">
-        <v>0.9706323901796843</v>
-      </c>
-      <c r="E63" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E63" t="n">
+        <v>200</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.3572940122273104</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7536.25014461264</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9790283934457026</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>"3,k-means++,30,200"</t>
         </is>
@@ -1769,15 +2657,29 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3420624467291535</v>
-      </c>
-      <c r="C64" t="n">
-        <v>7532.204620255461</v>
+        <v>3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>k-means++</t>
+        </is>
       </c>
       <c r="D64" t="n">
-        <v>0.9955725687575199</v>
-      </c>
-      <c r="E64" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E64" t="n">
+        <v>300</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.343727532099406</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7533.694306949704</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9974891983513934</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>"3,k-means++,30,300"</t>
         </is>
@@ -1790,15 +2692,29 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3613760395892844</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7532.079191379241</v>
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D65" t="n">
-        <v>0.967162572742148</v>
-      </c>
-      <c r="E65" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>100</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.3426052640718301</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7532.550541432626</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9961526197938202</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>"3,random,10,100"</t>
         </is>
@@ -1811,15 +2727,29 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3438576704561828</v>
-      </c>
-      <c r="C66" t="n">
-        <v>7533.876734093132</v>
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D66" t="n">
-        <v>0.9973259579613094</v>
-      </c>
-      <c r="E66" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>200</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.3531864450287483</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7532.373344431946</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9865263951912832</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>"3,random,10,200"</t>
         </is>
@@ -1832,15 +2762,29 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3613760395892844</v>
-      </c>
-      <c r="C67" t="n">
-        <v>7532.079191379241</v>
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D67" t="n">
-        <v>0.967162572742148</v>
-      </c>
-      <c r="E67" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>300</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.3592819310714413</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7536.143812019942</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9731982099683653</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>"3,random,10,300"</t>
         </is>
@@ -1853,15 +2797,29 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.3567214413461219</v>
-      </c>
-      <c r="C68" t="n">
-        <v>7535.996133403685</v>
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D68" t="n">
-        <v>0.9795218629673498</v>
-      </c>
-      <c r="E68" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.35668011132301</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7536.147803395465</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9804676858642264</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>"3,random,20,100"</t>
         </is>
@@ -1874,15 +2832,29 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.360085628245041</v>
-      </c>
-      <c r="C69" t="n">
-        <v>7535.960687189034</v>
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D69" t="n">
-        <v>0.9716973865005016</v>
-      </c>
-      <c r="E69" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E69" t="n">
+        <v>200</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.3573388820532609</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7536.155204042138</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9789059267356039</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>"3,random,20,200"</t>
         </is>
@@ -1895,15 +2867,29 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3607209940512984</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7535.567319334814</v>
+        <v>3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9705678729267585</v>
-      </c>
-      <c r="E70" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="E70" t="n">
+        <v>300</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.3566128772584376</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7536.242759086281</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9801217135332854</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>"3,random,20,300"</t>
         </is>
@@ -1916,15 +2902,29 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.3600646962955279</v>
-      </c>
-      <c r="C71" t="n">
-        <v>7536.078830559411</v>
+        <v>3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9717799415811784</v>
-      </c>
-      <c r="E71" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E71" t="n">
+        <v>100</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.356516450512215</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7536.229264578787</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9800120333443654</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>"3,random,30,100"</t>
         </is>
@@ -1937,15 +2937,29 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3562187488027616</v>
-      </c>
-      <c r="C72" t="n">
-        <v>7536.205911986191</v>
+        <v>3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9808584230305804</v>
-      </c>
-      <c r="E72" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E72" t="n">
+        <v>200</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.3599245618887932</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7535.545495477346</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9719012003928018</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>"3,random,30,200"</t>
         </is>
@@ -1958,15 +2972,29 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3592398161647672</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7536.15175344827</v>
+        <v>3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
       </c>
       <c r="D73" t="n">
-        <v>0.9734378657709316</v>
-      </c>
-      <c r="E73" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="E73" t="n">
+        <v>300</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.3447850157053183</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7534.420711834783</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.996156747421942</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>"3,random,30,300"</t>
         </is>

--- a/parameter_list/Kmeans+parameterTuning.xlsx
+++ b/parameter_list/Kmeans+parameterTuning.xlsx
@@ -501,13 +501,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3766761268391582</v>
+        <v>0.3767194859927588</v>
       </c>
       <c r="G2" t="n">
-        <v>9448.294459292752</v>
+        <v>9448.380705846452</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8957947661423155</v>
+        <v>0.895696310982813</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -536,13 +536,13 @@
         <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3766922179176568</v>
+        <v>0.3766761268391582</v>
       </c>
       <c r="G3" t="n">
-        <v>9448.26846380636</v>
+        <v>9448.294459292752</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8957994047607311</v>
+        <v>0.8957947661423155</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -606,13 +606,13 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3769565250178962</v>
+        <v>0.3767661048597393</v>
       </c>
       <c r="G5" t="n">
-        <v>9448.595252823987</v>
+        <v>9448.352017499097</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8949476306906702</v>
+        <v>0.8955677960720608</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
         <v>200</v>
       </c>
       <c r="F6" t="n">
-        <v>0.376669363592874</v>
+        <v>0.3768085062585488</v>
       </c>
       <c r="G6" t="n">
-        <v>9448.325128647333</v>
+        <v>9448.583216058687</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8958410436676622</v>
+        <v>0.8953796930300051</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>0.376777309080705</v>
+        <v>0.3768717109510954</v>
       </c>
       <c r="G7" t="n">
-        <v>9448.548467830937</v>
+        <v>9448.592866133498</v>
       </c>
       <c r="H7" t="n">
-        <v>0.89551650631393</v>
+        <v>0.8951955840699171</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3768085062585488</v>
+        <v>0.376810059594437</v>
       </c>
       <c r="G8" t="n">
-        <v>9448.583216058687</v>
+        <v>9448.564832613862</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8953796930300051</v>
+        <v>0.8952423436793239</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>200</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3769685857367284</v>
+        <v>0.3766761268391582</v>
       </c>
       <c r="G9" t="n">
-        <v>9448.35451400133</v>
+        <v>9448.294459292752</v>
       </c>
       <c r="H9" t="n">
-        <v>0.894842709464596</v>
+        <v>0.8957947661423155</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>300</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3766790530226895</v>
+        <v>0.3768085062585488</v>
       </c>
       <c r="G10" t="n">
-        <v>9448.516447442684</v>
+        <v>9448.583216058687</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8958105066837696</v>
+        <v>0.8953796930300051</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -851,13 +851,13 @@
         <v>200</v>
       </c>
       <c r="F12" t="n">
-        <v>0.376669363592874</v>
+        <v>0.3767539643614797</v>
       </c>
       <c r="G12" t="n">
-        <v>9448.325128647333</v>
+        <v>9448.457840606414</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8958410436676622</v>
+        <v>0.8955715243796357</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -921,13 +921,13 @@
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3766761268391582</v>
+        <v>0.3767557968111131</v>
       </c>
       <c r="G14" t="n">
-        <v>9448.294459292752</v>
+        <v>9448.581583389787</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8957947661423155</v>
+        <v>0.8954706485513452</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -956,13 +956,13 @@
         <v>200</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3768749717126821</v>
+        <v>0.3768017805087099</v>
       </c>
       <c r="G15" t="n">
-        <v>9448.593375681867</v>
+        <v>9448.519253255563</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8951003658446099</v>
+        <v>0.8953919043882594</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -991,13 +991,13 @@
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3766761268391582</v>
+        <v>0.3768514976662413</v>
       </c>
       <c r="G16" t="n">
-        <v>9448.294459292752</v>
+        <v>9448.569184187802</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8957947661423155</v>
+        <v>0.8952248332339892</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3767899987824931</v>
+        <v>0.3768749717126821</v>
       </c>
       <c r="G17" t="n">
-        <v>9448.503812448505</v>
+        <v>9448.593375681867</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8954373672602646</v>
+        <v>0.8951003658446099</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1061,13 +1061,13 @@
         <v>200</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3768632420246217</v>
+        <v>0.3767557968111131</v>
       </c>
       <c r="G18" t="n">
-        <v>9448.583365919012</v>
+        <v>9448.581583389787</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8953216256220086</v>
+        <v>0.8954706485513452</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1096,13 +1096,13 @@
         <v>300</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3767743746448558</v>
+        <v>0.3768749717126821</v>
       </c>
       <c r="G19" t="n">
-        <v>9448.501462793341</v>
+        <v>9448.593375681867</v>
       </c>
       <c r="H19" t="n">
-        <v>0.895475140517454</v>
+        <v>0.8951003658446099</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1131,13 +1131,13 @@
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.349519202254401</v>
       </c>
       <c r="G20" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.413457428413</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9655708227292391</v>
+        <v>0.9655713977768813</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1166,13 +1166,13 @@
         <v>200</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.3497161019089012</v>
       </c>
       <c r="G21" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.367645080463</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9655708227292393</v>
+        <v>0.9649920179608206</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
         <v>300</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.3489596526079728</v>
       </c>
       <c r="G22" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.395240825816</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9655708227292393</v>
+        <v>0.9655299229856035</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1236,13 +1236,13 @@
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3489577599625682</v>
+        <v>0.3489640732643964</v>
       </c>
       <c r="G23" t="n">
-        <v>7117.410816889067</v>
+        <v>7117.460578286275</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9653106988455559</v>
+        <v>0.9657939473210441</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         <v>200</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.3492602683544405</v>
       </c>
       <c r="G24" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.454476424279</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9655708227292391</v>
+        <v>0.9657166996884575</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1306,13 +1306,13 @@
         <v>300</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3489044552402332</v>
+        <v>0.3489297240704156</v>
       </c>
       <c r="G25" t="n">
-        <v>7117.431712812849</v>
+        <v>7117.420724311337</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9655961770905158</v>
+        <v>0.9656401225975558</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1341,13 +1341,13 @@
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>0.349131351701692</v>
+        <v>0.3490094150585039</v>
       </c>
       <c r="G26" t="n">
-        <v>7117.364198770087</v>
+        <v>7117.424155390097</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9655926945673531</v>
+        <v>0.9653449947588739</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1411,13 +1411,13 @@
         <v>300</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3489547396532376</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G28" t="n">
-        <v>7117.449904840822</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H28" t="n">
-        <v>0.965778762101453</v>
+        <v>0.9655708227292391</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1446,13 +1446,13 @@
         <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3490629677461028</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G29" t="n">
-        <v>7117.383484650276</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9652385456772691</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3490935431996623</v>
+        <v>0.3489546044415558</v>
       </c>
       <c r="G30" t="n">
-        <v>7117.321592377949</v>
+        <v>7117.371865801198</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9655952295184839</v>
+        <v>0.9654914863802367</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1516,13 +1516,13 @@
         <v>300</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3489137783603128</v>
+        <v>0.3495707728781497</v>
       </c>
       <c r="G31" t="n">
-        <v>7117.400495046107</v>
+        <v>7117.421809196981</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9653467451304157</v>
+        <v>0.9654929146703591</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1586,13 +1586,13 @@
         <v>200</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3489137783603128</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G33" t="n">
-        <v>7117.400495046106</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9653467451304157</v>
+        <v>0.9655708227292391</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         <v>300</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.3489594706871006</v>
       </c>
       <c r="G34" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.39358907475</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9655708227292393</v>
+        <v>0.9653138662830699</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.3496373315616472</v>
       </c>
       <c r="G35" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.387243581403</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9655708227292391</v>
+        <v>0.9653923315966288</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1691,13 +1691,13 @@
         <v>200</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3489577599625682</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G36" t="n">
-        <v>7117.410816889067</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9653106988455559</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1726,13 +1726,13 @@
         <v>300</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3496782141761411</v>
+        <v>0.3489430821055621</v>
       </c>
       <c r="G37" t="n">
-        <v>7117.373803373914</v>
+        <v>7117.408644398353</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9652535632153483</v>
+        <v>0.9653183640525742</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
         <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3628045486305177</v>
+        <v>0.3628027174852865</v>
       </c>
       <c r="G38" t="n">
-        <v>10285.54452660558</v>
+        <v>10285.61479859769</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9093345377152725</v>
+        <v>0.909396075791672</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1796,13 +1796,13 @@
         <v>200</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3627913551186936</v>
+        <v>0.3627161324447251</v>
       </c>
       <c r="G39" t="n">
-        <v>10285.87002301356</v>
+        <v>10286.01546597837</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9098809296650564</v>
+        <v>0.9100505604395034</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1831,13 +1831,13 @@
         <v>300</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3628626479066698</v>
+        <v>0.3627822404384627</v>
       </c>
       <c r="G40" t="n">
-        <v>10285.46538931117</v>
+        <v>10285.89389841141</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9093374312263695</v>
+        <v>0.9097497490352867</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1866,13 +1866,13 @@
         <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3627195226951265</v>
+        <v>0.3626316776203726</v>
       </c>
       <c r="G41" t="n">
-        <v>10285.91629529815</v>
+        <v>10286.01353932733</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9098072902070337</v>
+        <v>0.9101849239470368</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         <v>200</v>
       </c>
       <c r="F42" t="n">
-        <v>0.362610218783187</v>
+        <v>0.3626759951330942</v>
       </c>
       <c r="G42" t="n">
-        <v>10285.95680989215</v>
+        <v>10285.99186461414</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9101809081457475</v>
+        <v>0.9100101901629255</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1936,13 +1936,13 @@
         <v>300</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3627384818566243</v>
+        <v>0.3627427137597053</v>
       </c>
       <c r="G43" t="n">
-        <v>10285.97297048179</v>
+        <v>10285.96026491503</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9099491101611691</v>
+        <v>0.9098617472057161</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1971,13 +1971,13 @@
         <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3627104699118363</v>
+        <v>0.3628400438468557</v>
       </c>
       <c r="G44" t="n">
-        <v>10285.84739505153</v>
+        <v>10285.87272460959</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9103253412226179</v>
+        <v>0.9095223774725222</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2006,13 +2006,13 @@
         <v>200</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3627878647671002</v>
+        <v>0.3625659005574234</v>
       </c>
       <c r="G45" t="n">
-        <v>10285.80380018908</v>
+        <v>10285.91317432121</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9094858422732705</v>
+        <v>0.9105079912901665</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2041,13 +2041,13 @@
         <v>300</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3627557740974703</v>
+        <v>0.3626548036769869</v>
       </c>
       <c r="G46" t="n">
-        <v>10285.82954677529</v>
+        <v>10285.97492516534</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9096015660396178</v>
+        <v>0.9101607384268391</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         <v>100</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3627937653046877</v>
+        <v>0.3628076760298441</v>
       </c>
       <c r="G47" t="n">
-        <v>10285.94455270009</v>
+        <v>10285.44292235416</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9098311094988668</v>
+        <v>0.9094091293309748</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2111,13 +2111,13 @@
         <v>200</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3628099468414178</v>
+        <v>0.3628202924074967</v>
       </c>
       <c r="G48" t="n">
-        <v>10285.85706729717</v>
+        <v>10285.55451440064</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9094978718414919</v>
+        <v>0.9093917854691739</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2146,13 +2146,13 @@
         <v>300</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3626699789577795</v>
+        <v>0.3626723719198286</v>
       </c>
       <c r="G49" t="n">
-        <v>10285.86593041972</v>
+        <v>10285.86539859756</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9098771769696973</v>
+        <v>0.9103498919843832</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2181,13 +2181,13 @@
         <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3625326000026612</v>
+        <v>0.3628874055201033</v>
       </c>
       <c r="G50" t="n">
-        <v>10285.84541443634</v>
+        <v>10285.8516876272</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9106441495703756</v>
+        <v>0.9093534637034802</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2216,13 +2216,13 @@
         <v>200</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3628199523054311</v>
+        <v>0.362658431730633</v>
       </c>
       <c r="G51" t="n">
-        <v>10285.86307950032</v>
+        <v>10286.00247140839</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9094876234593556</v>
+        <v>0.9101995309398477</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2251,13 +2251,13 @@
         <v>300</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3626051204059485</v>
+        <v>0.3624567021792631</v>
       </c>
       <c r="G52" t="n">
-        <v>10285.97791065193</v>
+        <v>10285.75797887721</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9103723046405432</v>
+        <v>0.9108884871877491</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2286,13 +2286,13 @@
         <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3626313986492509</v>
+        <v>0.3626853522660816</v>
       </c>
       <c r="G53" t="n">
-        <v>10285.98780611242</v>
+        <v>10285.97080451011</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9101418087295707</v>
+        <v>0.909953016202916</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
         <v>200</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3626784995675565</v>
+        <v>0.3626017907762372</v>
       </c>
       <c r="G54" t="n">
-        <v>10285.87605884926</v>
+        <v>10286.02153931095</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9098523291205146</v>
+        <v>0.9104436757865916</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2356,13 +2356,13 @@
         <v>300</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3627362961868959</v>
+        <v>0.3628090211548456</v>
       </c>
       <c r="G55" t="n">
-        <v>10285.9131768231</v>
+        <v>10285.81124961722</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9102233836065521</v>
+        <v>0.9094436480730619</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2391,13 +2391,13 @@
         <v>100</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3613998039801843</v>
+        <v>0.3524194202447274</v>
       </c>
       <c r="G56" t="n">
-        <v>7531.943088879835</v>
+        <v>7532.531427397527</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9670282799941251</v>
+        <v>0.9881782712465754</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2426,13 +2426,13 @@
         <v>200</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3564755381088829</v>
+        <v>0.3562735012939333</v>
       </c>
       <c r="G57" t="n">
-        <v>7536.009958946144</v>
+        <v>7536.166957067758</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9795891578313377</v>
+        <v>0.9809199601050755</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2461,13 +2461,13 @@
         <v>300</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3564569459756522</v>
+        <v>0.3546294687195976</v>
       </c>
       <c r="G58" t="n">
-        <v>7535.734808176452</v>
+        <v>7535.460203200867</v>
       </c>
       <c r="H58" t="n">
-        <v>0.981791447832375</v>
+        <v>0.9841968141395195</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3593765636343057</v>
+        <v>0.3605444548901897</v>
       </c>
       <c r="G59" t="n">
-        <v>7536.165240052514</v>
+        <v>7535.910095959029</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9730446671507634</v>
+        <v>0.9705324688214637</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         <v>200</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3577246262874071</v>
+        <v>0.3602215986601037</v>
       </c>
       <c r="G60" t="n">
-        <v>7535.952025489324</v>
+        <v>7536.074612407539</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9771880740289064</v>
+        <v>0.9713967384477948</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2566,13 +2566,13 @@
         <v>300</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3440288445015656</v>
+        <v>0.3607822687640598</v>
       </c>
       <c r="G61" t="n">
-        <v>7534.169992912841</v>
+        <v>7535.788597178771</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9969034491386136</v>
+        <v>0.9700695938521869</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2601,13 +2601,13 @@
         <v>100</v>
       </c>
       <c r="F62" t="n">
-        <v>0.359599538970185</v>
+        <v>0.3445758144890075</v>
       </c>
       <c r="G62" t="n">
-        <v>7536.03627768864</v>
+        <v>7534.402385719622</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9725819280300397</v>
+        <v>0.9964146343987741</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2636,13 +2636,13 @@
         <v>200</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3572940122273104</v>
+        <v>0.3573239175879279</v>
       </c>
       <c r="G63" t="n">
-        <v>7536.25014461264</v>
+        <v>7536.276219943938</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9790283934457026</v>
+        <v>0.9788415193873373</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2671,13 +2671,13 @@
         <v>300</v>
       </c>
       <c r="F64" t="n">
-        <v>0.343727532099406</v>
+        <v>0.3585468674987751</v>
       </c>
       <c r="G64" t="n">
-        <v>7533.694306949704</v>
+        <v>7536.118583103262</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9974891983513934</v>
+        <v>0.9758257073529232</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         <v>100</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3426052640718301</v>
+        <v>0.3565822828900252</v>
       </c>
       <c r="G65" t="n">
-        <v>7532.550541432626</v>
+        <v>7536.178388853924</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9961526197938202</v>
+        <v>0.9805724143639366</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2741,13 +2741,13 @@
         <v>200</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3531864450287483</v>
+        <v>0.3553596152993032</v>
       </c>
       <c r="G66" t="n">
-        <v>7532.373344431946</v>
+        <v>7535.794302864208</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9865263951912832</v>
+        <v>0.9830087308147185</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2776,13 +2776,13 @@
         <v>300</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3592819310714413</v>
+        <v>0.3430061460288847</v>
       </c>
       <c r="G67" t="n">
-        <v>7536.143812019942</v>
+        <v>7532.910624891897</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9731982099683653</v>
+        <v>0.9971057218430966</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2811,13 +2811,13 @@
         <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>0.35668011132301</v>
+        <v>0.3608968162726715</v>
       </c>
       <c r="G68" t="n">
-        <v>7536.147803395465</v>
+        <v>7534.207645345087</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9804676858642264</v>
+        <v>0.9696519028944124</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2846,13 +2846,13 @@
         <v>200</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3573388820532609</v>
+        <v>0.3585085487092308</v>
       </c>
       <c r="G69" t="n">
-        <v>7536.155204042138</v>
+        <v>7536.091407611006</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9789059267356039</v>
+        <v>0.975954846502643</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
         <v>300</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3566128772584376</v>
+        <v>0.3565441743895106</v>
       </c>
       <c r="G70" t="n">
-        <v>7536.242759086281</v>
+        <v>7536.170078249464</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9801217135332854</v>
+        <v>0.9799251509017918</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2916,13 +2916,13 @@
         <v>100</v>
       </c>
       <c r="F71" t="n">
-        <v>0.356516450512215</v>
+        <v>0.3608894348322135</v>
       </c>
       <c r="G71" t="n">
-        <v>7536.229264578787</v>
+        <v>7534.60666016293</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9800120333443654</v>
+        <v>0.9699821255486532</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -2951,13 +2951,13 @@
         <v>200</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3599245618887932</v>
+        <v>0.3559217235537509</v>
       </c>
       <c r="G72" t="n">
-        <v>7535.545495477346</v>
+        <v>7536.122324539458</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9719012003928018</v>
+        <v>0.9818650859102771</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -2986,13 +2986,13 @@
         <v>300</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3447850157053183</v>
+        <v>0.35705846656296</v>
       </c>
       <c r="G73" t="n">
-        <v>7534.420711834783</v>
+        <v>7536.251425844409</v>
       </c>
       <c r="H73" t="n">
-        <v>0.996156747421942</v>
+        <v>0.9795294544235666</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>

--- a/parameter_list/Kmeans+parameterTuning.xlsx
+++ b/parameter_list/Kmeans+parameterTuning.xlsx
@@ -501,13 +501,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3767194859927588</v>
+        <v>0.376669363592874</v>
       </c>
       <c r="G2" t="n">
-        <v>9448.380705846452</v>
+        <v>9448.325128647333</v>
       </c>
       <c r="H2" t="n">
-        <v>0.895696310982813</v>
+        <v>0.8958410436676622</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -536,13 +536,13 @@
         <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3766761268391582</v>
+        <v>0.3766922179176568</v>
       </c>
       <c r="G3" t="n">
-        <v>9448.294459292752</v>
+        <v>9448.268463806362</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8957947661423155</v>
+        <v>0.8957994047607309</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
         <v>300</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3766761268391582</v>
+        <v>0.3769492539517465</v>
       </c>
       <c r="G4" t="n">
-        <v>9448.294459292751</v>
+        <v>9448.374477378831</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8957947661423153</v>
+        <v>0.8952663939271277</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -606,13 +606,13 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3767661048597393</v>
+        <v>0.376517742033042</v>
       </c>
       <c r="G5" t="n">
-        <v>9448.352017499097</v>
+        <v>9447.611476921145</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8955677960720608</v>
+        <v>0.8960498344648844</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
         <v>200</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3768085062585488</v>
+        <v>0.3768895184450216</v>
       </c>
       <c r="G6" t="n">
-        <v>9448.583216058687</v>
+        <v>9448.522398115072</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8953796930300051</v>
+        <v>0.8949630850307604</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3768717109510954</v>
+        <v>0.376796758065562</v>
       </c>
       <c r="G7" t="n">
-        <v>9448.592866133498</v>
+        <v>9448.419318624849</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8951955840699171</v>
+        <v>0.8955154813627315</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0.376810059594437</v>
+        <v>0.3768132258035254</v>
       </c>
       <c r="G8" t="n">
-        <v>9448.564832613862</v>
+        <v>9448.534777613639</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8952423436793239</v>
+        <v>0.8953425401957692</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>200</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3766761268391582</v>
+        <v>0.3769362531749272</v>
       </c>
       <c r="G9" t="n">
-        <v>9448.294459292752</v>
+        <v>9448.584813573987</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8957947661423155</v>
+        <v>0.8949487899627897</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>300</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3768085062585488</v>
+        <v>0.3770524848229457</v>
       </c>
       <c r="G10" t="n">
-        <v>9448.583216058687</v>
+        <v>9448.444395272012</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8953796930300051</v>
+        <v>0.8946877625647179</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -816,13 +816,13 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0.376669363592874</v>
+        <v>0.3767899987824931</v>
       </c>
       <c r="G11" t="n">
-        <v>9448.325128647333</v>
+        <v>9448.503812448504</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8958410436676622</v>
+        <v>0.8954373672602643</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -851,13 +851,13 @@
         <v>200</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3767539643614797</v>
+        <v>0.3766583238533173</v>
       </c>
       <c r="G12" t="n">
-        <v>9448.457840606414</v>
+        <v>9448.072492291545</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8955715243796357</v>
+        <v>0.8959347091515383</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         <v>300</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3766761268391582</v>
+        <v>0.3764810581100255</v>
       </c>
       <c r="G13" t="n">
-        <v>9448.294459292752</v>
+        <v>9447.610882783283</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8957947661423155</v>
+        <v>0.8961368320343887</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -921,13 +921,13 @@
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3767557968111131</v>
+        <v>0.376669363592874</v>
       </c>
       <c r="G14" t="n">
-        <v>9448.581583389787</v>
+        <v>9448.325128647333</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8954706485513452</v>
+        <v>0.8958410436676622</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -956,13 +956,13 @@
         <v>200</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3768017805087099</v>
+        <v>0.3767557968111131</v>
       </c>
       <c r="G15" t="n">
-        <v>9448.519253255563</v>
+        <v>9448.581583389787</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8953919043882594</v>
+        <v>0.8954706485513452</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -991,13 +991,13 @@
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3768514976662413</v>
+        <v>0.3768179165411663</v>
       </c>
       <c r="G16" t="n">
-        <v>9448.569184187802</v>
+        <v>9448.575437579717</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8952248332339892</v>
+        <v>0.89538161986885</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3768749717126821</v>
+        <v>0.3767555108391998</v>
       </c>
       <c r="G17" t="n">
-        <v>9448.593375681867</v>
+        <v>9448.559894125367</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8951003658446099</v>
+        <v>0.8956646374998091</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1061,13 +1061,13 @@
         <v>200</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3767557968111131</v>
+        <v>0.376669363592874</v>
       </c>
       <c r="G18" t="n">
-        <v>9448.581583389787</v>
+        <v>9448.325128647333</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8954706485513452</v>
+        <v>0.8958410436676622</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1096,13 +1096,13 @@
         <v>300</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3768749717126821</v>
+        <v>0.3768064190006485</v>
       </c>
       <c r="G19" t="n">
-        <v>9448.593375681867</v>
+        <v>9448.586957015306</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8951003658446099</v>
+        <v>0.8953631968203452</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1131,13 +1131,13 @@
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>0.349519202254401</v>
+        <v>0.3497025724794381</v>
       </c>
       <c r="G20" t="n">
-        <v>7117.413457428413</v>
+        <v>7117.369649295943</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9655713977768813</v>
+        <v>0.9652410534736596</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1166,13 +1166,13 @@
         <v>200</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3497161019089012</v>
+        <v>0.3490920525250096</v>
       </c>
       <c r="G21" t="n">
-        <v>7117.367645080463</v>
+        <v>7117.384613984043</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9649920179608206</v>
+        <v>0.9652109837590747</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
         <v>300</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3489596526079728</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G22" t="n">
-        <v>7117.395240825816</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9655299229856035</v>
+        <v>0.9655708227292391</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1236,13 +1236,13 @@
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3489640732643964</v>
+        <v>0.3490625355792006</v>
       </c>
       <c r="G23" t="n">
-        <v>7117.460578286275</v>
+        <v>7117.458493244291</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9657939473210441</v>
+        <v>0.9659366121323399</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         <v>200</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3492602683544405</v>
+        <v>0.3489895193890797</v>
       </c>
       <c r="G24" t="n">
-        <v>7117.454476424279</v>
+        <v>7117.402989489571</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9657166996884575</v>
+        <v>0.9659728545599254</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1306,13 +1306,13 @@
         <v>300</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3489297240704156</v>
+        <v>0.3491989464605129</v>
       </c>
       <c r="G25" t="n">
-        <v>7117.420724311337</v>
+        <v>7117.352232250687</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9656401225975558</v>
+        <v>0.9651313534579623</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1341,13 +1341,13 @@
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3490094150585039</v>
+        <v>0.3494938810468444</v>
       </c>
       <c r="G26" t="n">
-        <v>7117.424155390097</v>
+        <v>7117.393960676554</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9653449947588739</v>
+        <v>0.9650728679371533</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1376,13 +1376,13 @@
         <v>200</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.3490143011004576</v>
       </c>
       <c r="G27" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.411767109266</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9655708227292393</v>
+        <v>0.9652714763542907</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1411,13 +1411,13 @@
         <v>300</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.349027159479507</v>
       </c>
       <c r="G28" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.45736858318</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9655708227292391</v>
+        <v>0.9659468165625683</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3489546044415558</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G30" t="n">
-        <v>7117.371865801198</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9654914863802367</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1516,13 +1516,13 @@
         <v>300</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3495707728781497</v>
+        <v>0.3490230728049118</v>
       </c>
       <c r="G31" t="n">
-        <v>7117.421809196981</v>
+        <v>7117.278793443157</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9654929146703591</v>
+        <v>0.9656435267394098</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1551,13 +1551,13 @@
         <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.349553446243846</v>
       </c>
       <c r="G32" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.429634156223</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9655708227292391</v>
+        <v>0.965200348744136</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         <v>300</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3489594706871006</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G34" t="n">
-        <v>7117.39358907475</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9653138662830699</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3496373315616472</v>
+        <v>0.3495616115036024</v>
       </c>
       <c r="G35" t="n">
-        <v>7117.387243581403</v>
+        <v>7117.421676628505</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9653923315966288</v>
+        <v>0.9654918709116437</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1691,13 +1691,13 @@
         <v>200</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.3495292815094141</v>
       </c>
       <c r="G36" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.37021806947</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9655708227292393</v>
+        <v>0.9655821435098945</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1726,13 +1726,13 @@
         <v>300</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3489430821055621</v>
+        <v>0.3490223862751954</v>
       </c>
       <c r="G37" t="n">
-        <v>7117.408644398353</v>
+        <v>7117.401142952803</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9653183640525742</v>
+        <v>0.9653425891637873</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
         <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3628027174852865</v>
+        <v>0.3626452170902856</v>
       </c>
       <c r="G38" t="n">
-        <v>10285.61479859769</v>
+        <v>10285.98480925686</v>
       </c>
       <c r="H38" t="n">
-        <v>0.909396075791672</v>
+        <v>0.9101023322611997</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1796,13 +1796,13 @@
         <v>200</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3627161324447251</v>
+        <v>0.3628329202307078</v>
       </c>
       <c r="G39" t="n">
-        <v>10286.01546597837</v>
+        <v>10285.51199294181</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9100505604395034</v>
+        <v>0.909417373877612</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1831,13 +1831,13 @@
         <v>300</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3627822404384627</v>
+        <v>0.362623213417254</v>
       </c>
       <c r="G40" t="n">
-        <v>10285.89389841141</v>
+        <v>10286.01531072539</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9097497490352867</v>
+        <v>0.9102129440334682</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1866,13 +1866,13 @@
         <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3626316776203726</v>
+        <v>0.3628917223834984</v>
       </c>
       <c r="G41" t="n">
-        <v>10286.01353932733</v>
+        <v>10285.78412641238</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9101849239470368</v>
+        <v>0.9092605292759052</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         <v>200</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3626759951330942</v>
+        <v>0.3626548036769869</v>
       </c>
       <c r="G42" t="n">
-        <v>10285.99186461414</v>
+        <v>10285.97492516534</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9100101901629255</v>
+        <v>0.9101607384268392</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1936,13 +1936,13 @@
         <v>300</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3627427137597053</v>
+        <v>0.362693714385033</v>
       </c>
       <c r="G43" t="n">
-        <v>10285.96026491503</v>
+        <v>10285.96683062187</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9098617472057161</v>
+        <v>0.9099253036126439</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1971,13 +1971,13 @@
         <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3628400438468557</v>
+        <v>0.3626262103305076</v>
       </c>
       <c r="G44" t="n">
-        <v>10285.87272460959</v>
+        <v>10286.00193453673</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9095223774725222</v>
+        <v>0.9101846808077858</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2006,13 +2006,13 @@
         <v>200</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3625659005574234</v>
+        <v>0.3627495856603921</v>
       </c>
       <c r="G45" t="n">
-        <v>10285.91317432121</v>
+        <v>10285.9545091635</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9105079912901665</v>
+        <v>0.9098403158782172</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2041,13 +2041,13 @@
         <v>300</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3626548036769869</v>
+        <v>0.3628101607521899</v>
       </c>
       <c r="G46" t="n">
-        <v>10285.97492516534</v>
+        <v>10285.903980483</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9101607384268391</v>
+        <v>0.9096193555900439</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         <v>100</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3628076760298441</v>
+        <v>0.3628509336519437</v>
       </c>
       <c r="G47" t="n">
-        <v>10285.44292235416</v>
+        <v>10285.47410840441</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9094091293309748</v>
+        <v>0.9093516524560644</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2111,13 +2111,13 @@
         <v>200</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3628202924074967</v>
+        <v>0.362593398307095</v>
       </c>
       <c r="G48" t="n">
-        <v>10285.55451440064</v>
+        <v>10285.95573809351</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9093917854691739</v>
+        <v>0.9103527884684802</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2146,13 +2146,13 @@
         <v>300</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3626723719198286</v>
+        <v>0.362873916011079</v>
       </c>
       <c r="G49" t="n">
-        <v>10285.86539859756</v>
+        <v>10285.32070640001</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9103498919843832</v>
+        <v>0.9101897713020281</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2181,13 +2181,13 @@
         <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3628874055201033</v>
+        <v>0.3627024662393684</v>
       </c>
       <c r="G50" t="n">
-        <v>10285.8516876272</v>
+        <v>10285.93116462741</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9093534637034802</v>
+        <v>0.909863655518914</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2216,13 +2216,13 @@
         <v>200</v>
       </c>
       <c r="F51" t="n">
-        <v>0.362658431730633</v>
+        <v>0.3628094734258093</v>
       </c>
       <c r="G51" t="n">
-        <v>10286.00247140839</v>
+        <v>10285.60857665836</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9101995309398477</v>
+        <v>0.909377116968376</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2251,13 +2251,13 @@
         <v>300</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3624567021792631</v>
+        <v>0.3627070963125029</v>
       </c>
       <c r="G52" t="n">
-        <v>10285.75797887721</v>
+        <v>10285.90386849321</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9108884871877491</v>
+        <v>0.9102931176002294</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2286,13 +2286,13 @@
         <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3626853522660816</v>
+        <v>0.3627419374751606</v>
       </c>
       <c r="G53" t="n">
-        <v>10285.97080451011</v>
+        <v>10285.83072167326</v>
       </c>
       <c r="H53" t="n">
-        <v>0.909953016202916</v>
+        <v>0.9096425512541447</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
         <v>200</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3626017907762372</v>
+        <v>0.3626532029855691</v>
       </c>
       <c r="G54" t="n">
-        <v>10286.02153931095</v>
+        <v>10285.97509277443</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9104436757865916</v>
+        <v>0.9101977893148897</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2356,13 +2356,13 @@
         <v>300</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3628090211548456</v>
+        <v>0.3626753187168084</v>
       </c>
       <c r="G55" t="n">
-        <v>10285.81124961722</v>
+        <v>10285.95413396983</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9094436480730619</v>
+        <v>0.9103429734456602</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2391,13 +2391,13 @@
         <v>100</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3524194202447274</v>
+        <v>0.3615611237664172</v>
       </c>
       <c r="G56" t="n">
-        <v>7532.531427397527</v>
+        <v>7534.310674797791</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9881782712465754</v>
+        <v>0.9681696077256231</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2426,13 +2426,13 @@
         <v>200</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3562735012939333</v>
+        <v>0.347163177957853</v>
       </c>
       <c r="G57" t="n">
-        <v>7536.166957067758</v>
+        <v>7532.367232633627</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9809199601050755</v>
+        <v>0.9955356240970775</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2461,13 +2461,13 @@
         <v>300</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3546294687195976</v>
+        <v>0.3566652572961898</v>
       </c>
       <c r="G58" t="n">
-        <v>7535.460203200867</v>
+        <v>7536.163201500683</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9841968141395195</v>
+        <v>0.979545005439305</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3605444548901897</v>
+        <v>0.3558728334134055</v>
       </c>
       <c r="G59" t="n">
-        <v>7535.910095959029</v>
+        <v>7535.942333205741</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9705324688214637</v>
+        <v>0.9818627954620401</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         <v>200</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3602215986601037</v>
+        <v>0.3574114365370956</v>
       </c>
       <c r="G60" t="n">
-        <v>7536.074612407539</v>
+        <v>7536.044253053345</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9713967384477948</v>
+        <v>0.9784196136044718</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2566,13 +2566,13 @@
         <v>300</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3607822687640598</v>
+        <v>0.3562829192585081</v>
       </c>
       <c r="G61" t="n">
-        <v>7535.788597178771</v>
+        <v>7535.593527161514</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9700695938521869</v>
+        <v>0.9820196605109685</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2601,13 +2601,13 @@
         <v>100</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3445758144890075</v>
+        <v>0.3600780990877608</v>
       </c>
       <c r="G62" t="n">
-        <v>7534.402385719622</v>
+        <v>7535.983614041817</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9964146343987741</v>
+        <v>0.9715058659360601</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2636,13 +2636,13 @@
         <v>200</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3573239175879279</v>
+        <v>0.3595556601033066</v>
       </c>
       <c r="G63" t="n">
-        <v>7536.276219943938</v>
+        <v>7536.011432312623</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9788415193873373</v>
+        <v>0.9728627044325938</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2671,13 +2671,13 @@
         <v>300</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3585468674987751</v>
+        <v>0.3596692938700997</v>
       </c>
       <c r="G64" t="n">
-        <v>7536.118583103262</v>
+        <v>7536.125839451242</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9758257073529232</v>
+        <v>0.972792655088636</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         <v>100</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3565822828900252</v>
+        <v>0.3577176664461034</v>
       </c>
       <c r="G65" t="n">
-        <v>7536.178388853924</v>
+        <v>7535.972875952559</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9805724143639366</v>
+        <v>0.9771493085144695</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2741,13 +2741,13 @@
         <v>200</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3553596152993032</v>
+        <v>0.3543812586825065</v>
       </c>
       <c r="G66" t="n">
-        <v>7535.794302864208</v>
+        <v>7535.302883598908</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9830087308147185</v>
+        <v>0.985053655358664</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2776,13 +2776,13 @@
         <v>300</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3430061460288847</v>
+        <v>0.3541457376653027</v>
       </c>
       <c r="G67" t="n">
-        <v>7532.910624891897</v>
+        <v>7534.394305423372</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9971057218430966</v>
+        <v>0.9856672273141222</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2811,13 +2811,13 @@
         <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3608968162726715</v>
+        <v>0.356455313711812</v>
       </c>
       <c r="G68" t="n">
-        <v>7534.207645345087</v>
+        <v>7536.206683978246</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9696519028944124</v>
+        <v>0.9800881751856497</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2846,13 +2846,13 @@
         <v>200</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3585085487092308</v>
+        <v>0.3446660150659634</v>
       </c>
       <c r="G69" t="n">
-        <v>7536.091407611006</v>
+        <v>7533.34694266436</v>
       </c>
       <c r="H69" t="n">
-        <v>0.975954846502643</v>
+        <v>0.9970811887875287</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
         <v>300</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3565441743895106</v>
+        <v>0.3447200715935373</v>
       </c>
       <c r="G70" t="n">
-        <v>7536.170078249464</v>
+        <v>7533.446742334987</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9799251509017918</v>
+        <v>0.996815435152158</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2916,13 +2916,13 @@
         <v>100</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3608894348322135</v>
+        <v>0.3572374396483554</v>
       </c>
       <c r="G71" t="n">
-        <v>7534.60666016293</v>
+        <v>7536.231394515384</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9699821255486532</v>
+        <v>0.9791436008981144</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -2951,13 +2951,13 @@
         <v>200</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3559217235537509</v>
+        <v>0.3565663992672713</v>
       </c>
       <c r="G72" t="n">
-        <v>7536.122324539458</v>
+        <v>7536.240322937491</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9818650859102771</v>
+        <v>0.9800901706921632</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -2986,13 +2986,13 @@
         <v>300</v>
       </c>
       <c r="F73" t="n">
-        <v>0.35705846656296</v>
+        <v>0.345318040033368</v>
       </c>
       <c r="G73" t="n">
-        <v>7536.251425844409</v>
+        <v>7533.294594503473</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9795294544235666</v>
+        <v>0.9967268704047907</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>

--- a/parameter_list/Kmeans+parameterTuning.xlsx
+++ b/parameter_list/Kmeans+parameterTuning.xlsx
@@ -501,13 +501,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.376669363592874</v>
+        <v>0.3768047620126512</v>
       </c>
       <c r="G2" t="n">
-        <v>9448.325128647333</v>
+        <v>9448.567778341223</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8958410436676622</v>
+        <v>0.8954737291903004</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -536,13 +536,13 @@
         <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3766922179176568</v>
+        <v>0.3764810581100255</v>
       </c>
       <c r="G3" t="n">
-        <v>9448.268463806362</v>
+        <v>9447.610882783283</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8957994047607309</v>
+        <v>0.8961368320343887</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
         <v>300</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3769492539517465</v>
+        <v>0.3769873775849</v>
       </c>
       <c r="G4" t="n">
-        <v>9448.374477378831</v>
+        <v>9448.043713857496</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8952663939271277</v>
+        <v>0.8950514412627216</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -606,13 +606,13 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.376517742033042</v>
+        <v>0.376669363592874</v>
       </c>
       <c r="G5" t="n">
-        <v>9447.611476921145</v>
+        <v>9448.325128647333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8960498344648844</v>
+        <v>0.8958410436676622</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
         <v>200</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3768895184450216</v>
+        <v>0.3767899987824931</v>
       </c>
       <c r="G6" t="n">
-        <v>9448.522398115072</v>
+        <v>9448.503812448505</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8949630850307604</v>
+        <v>0.8954373672602646</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>0.376796758065562</v>
+        <v>0.3768391949732925</v>
       </c>
       <c r="G7" t="n">
-        <v>9448.419318624849</v>
+        <v>9448.561029982451</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8955154813627315</v>
+        <v>0.8952648922076456</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3768132258035254</v>
+        <v>0.376702269860915</v>
       </c>
       <c r="G8" t="n">
-        <v>9448.534777613639</v>
+        <v>9448.548311323751</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8953425401957692</v>
+        <v>0.8956138476736178</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -746,13 +746,13 @@
         <v>200</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3769362531749272</v>
+        <v>0.376669363592874</v>
       </c>
       <c r="G9" t="n">
-        <v>9448.584813573987</v>
+        <v>9448.325128647333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8949487899627897</v>
+        <v>0.8958410436676622</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>300</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3770524848229457</v>
+        <v>0.3766761268391582</v>
       </c>
       <c r="G10" t="n">
-        <v>9448.444395272012</v>
+        <v>9448.294459292752</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8946877625647179</v>
+        <v>0.8957947661423155</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -816,13 +816,13 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3767899987824931</v>
+        <v>0.3766761268391582</v>
       </c>
       <c r="G11" t="n">
-        <v>9448.503812448504</v>
+        <v>9448.294459292752</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8954373672602643</v>
+        <v>0.8957947661423155</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -851,13 +851,13 @@
         <v>200</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3766583238533173</v>
+        <v>0.376669363592874</v>
       </c>
       <c r="G12" t="n">
-        <v>9448.072492291545</v>
+        <v>9448.325128647333</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8959347091515383</v>
+        <v>0.8958410436676622</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         <v>300</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3764810581100255</v>
+        <v>0.376669363592874</v>
       </c>
       <c r="G13" t="n">
-        <v>9447.610882783283</v>
+        <v>9448.325128647333</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8961368320343887</v>
+        <v>0.8958410436676622</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -956,13 +956,13 @@
         <v>200</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3767557968111131</v>
+        <v>0.3768218831074831</v>
       </c>
       <c r="G15" t="n">
-        <v>9448.581583389787</v>
+        <v>9448.584851027703</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8954706485513452</v>
+        <v>0.8953467267251254</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -991,13 +991,13 @@
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3768179165411663</v>
+        <v>0.3768391949732925</v>
       </c>
       <c r="G16" t="n">
-        <v>9448.575437579717</v>
+        <v>9448.561029982451</v>
       </c>
       <c r="H16" t="n">
-        <v>0.89538161986885</v>
+        <v>0.8952648922076456</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3767555108391998</v>
+        <v>0.3768749717126821</v>
       </c>
       <c r="G17" t="n">
-        <v>9448.559894125367</v>
+        <v>9448.593375681867</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8956646374998091</v>
+        <v>0.8951003658446099</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1096,13 +1096,13 @@
         <v>300</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3768064190006485</v>
+        <v>0.3768091579128089</v>
       </c>
       <c r="G19" t="n">
-        <v>9448.586957015306</v>
+        <v>9448.558999764331</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8953631968203452</v>
+        <v>0.8955025986531543</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1131,13 +1131,13 @@
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3497025724794381</v>
+        <v>0.3495431839231124</v>
       </c>
       <c r="G20" t="n">
-        <v>7117.369649295943</v>
+        <v>7117.425680466052</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9652410534736596</v>
+        <v>0.9655156088920381</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1166,13 +1166,13 @@
         <v>200</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3490920525250096</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G21" t="n">
-        <v>7117.384613984043</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9652109837590747</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>7117.340630325645</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9655708227292391</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1236,13 +1236,13 @@
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3490625355792006</v>
+        <v>0.3489332426942285</v>
       </c>
       <c r="G23" t="n">
-        <v>7117.458493244291</v>
+        <v>7117.38096344226</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9659366121323399</v>
+        <v>0.9653297801942767</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         <v>200</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3489895193890797</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G24" t="n">
-        <v>7117.402989489571</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9659728545599254</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1306,13 +1306,13 @@
         <v>300</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3491989464605129</v>
+        <v>0.3489953119154354</v>
       </c>
       <c r="G25" t="n">
-        <v>7117.352232250687</v>
+        <v>7117.4123795432</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9651313534579623</v>
+        <v>0.9652910069513476</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1341,13 +1341,13 @@
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3494938810468444</v>
+        <v>0.3488918594010034</v>
       </c>
       <c r="G26" t="n">
-        <v>7117.393960676554</v>
+        <v>7117.41541532368</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9650728679371533</v>
+        <v>0.9656233803496012</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1376,13 +1376,13 @@
         <v>200</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3490143011004576</v>
+        <v>0.348985025577378</v>
       </c>
       <c r="G27" t="n">
-        <v>7117.411767109266</v>
+        <v>7117.404091602603</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9652714763542907</v>
+        <v>0.9652998690429264</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1411,13 +1411,13 @@
         <v>300</v>
       </c>
       <c r="F28" t="n">
-        <v>0.349027159479507</v>
+        <v>0.3489635411012708</v>
       </c>
       <c r="G28" t="n">
-        <v>7117.45736858318</v>
+        <v>7117.410303098047</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9659468165625683</v>
+        <v>0.9654770796604608</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1446,13 +1446,13 @@
         <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.3494856417263293</v>
       </c>
       <c r="G29" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.362851727253</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9655708227292393</v>
+        <v>0.9655400918038071</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>7117.340630325645</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9655708227292393</v>
+        <v>0.9655708227292391</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1516,13 +1516,13 @@
         <v>300</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3490230728049118</v>
+        <v>0.3491266123893725</v>
       </c>
       <c r="G31" t="n">
-        <v>7117.278793443157</v>
+        <v>7117.340630325645</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9656435267394098</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1551,13 +1551,13 @@
         <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>0.349553446243846</v>
+        <v>0.3489808813785732</v>
       </c>
       <c r="G32" t="n">
-        <v>7117.429634156223</v>
+        <v>7117.414556511573</v>
       </c>
       <c r="H32" t="n">
-        <v>0.965200348744136</v>
+        <v>0.9653301299631393</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>7117.340630325645</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9655708227292391</v>
+        <v>0.9655708227292393</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         <v>300</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3491266123893725</v>
+        <v>0.349356316291297</v>
       </c>
       <c r="G34" t="n">
-        <v>7117.340630325645</v>
+        <v>7117.474949835096</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9655708227292393</v>
+        <v>0.9655959947778823</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1656,13 +1656,13 @@
         <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3495616115036024</v>
+        <v>0.349472372352173</v>
       </c>
       <c r="G35" t="n">
-        <v>7117.421676628505</v>
+        <v>7117.435519160533</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9654918709116437</v>
+        <v>0.9655662463501544</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1691,13 +1691,13 @@
         <v>200</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3495292815094141</v>
+        <v>0.3489324664116775</v>
       </c>
       <c r="G36" t="n">
-        <v>7117.37021806947</v>
+        <v>7117.393821633558</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9655821435098945</v>
+        <v>0.965336537972339</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1726,13 +1726,13 @@
         <v>300</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3490223862751954</v>
+        <v>0.348985025577378</v>
       </c>
       <c r="G37" t="n">
-        <v>7117.401142952803</v>
+        <v>7117.404091602603</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9653425891637873</v>
+        <v>0.9652998690429264</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
         <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3626452170902856</v>
+        <v>0.3628096086796232</v>
       </c>
       <c r="G38" t="n">
-        <v>10285.98480925686</v>
+        <v>10285.85339568231</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9101023322611997</v>
+        <v>0.909678518342298</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1796,13 +1796,13 @@
         <v>200</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3628329202307078</v>
+        <v>0.3628425103437758</v>
       </c>
       <c r="G39" t="n">
-        <v>10285.51199294181</v>
+        <v>10285.71856908723</v>
       </c>
       <c r="H39" t="n">
-        <v>0.909417373877612</v>
+        <v>0.9100826634677895</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1831,13 +1831,13 @@
         <v>300</v>
       </c>
       <c r="F40" t="n">
-        <v>0.362623213417254</v>
+        <v>0.3628400438468557</v>
       </c>
       <c r="G40" t="n">
-        <v>10286.01531072539</v>
+        <v>10285.87272460959</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9102129440334682</v>
+        <v>0.9095223774725222</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1866,13 +1866,13 @@
         <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3628917223834984</v>
+        <v>0.3624893025325057</v>
       </c>
       <c r="G41" t="n">
-        <v>10285.78412641238</v>
+        <v>10285.79952824931</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9092605292759052</v>
+        <v>0.9107847372951922</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         <v>200</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3626548036769869</v>
+        <v>0.3626219161418248</v>
       </c>
       <c r="G42" t="n">
-        <v>10285.97492516534</v>
+        <v>10286.01597311245</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9101607384268392</v>
+        <v>0.910371752454795</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1936,13 +1936,13 @@
         <v>300</v>
       </c>
       <c r="F43" t="n">
-        <v>0.362693714385033</v>
+        <v>0.3628329202307078</v>
       </c>
       <c r="G43" t="n">
-        <v>10285.96683062187</v>
+        <v>10285.51199294181</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9099253036126439</v>
+        <v>0.909417373877612</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1971,13 +1971,13 @@
         <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3626262103305076</v>
+        <v>0.362808873229119</v>
       </c>
       <c r="G44" t="n">
-        <v>10286.00193453673</v>
+        <v>10285.93173072445</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9101846808077858</v>
+        <v>0.9097785775861489</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2006,13 +2006,13 @@
         <v>200</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3627495856603921</v>
+        <v>0.3627738117063645</v>
       </c>
       <c r="G45" t="n">
-        <v>10285.9545091635</v>
+        <v>10285.70126574695</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9098403158782172</v>
+        <v>0.9103027481882112</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2041,13 +2041,13 @@
         <v>300</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3628101607521899</v>
+        <v>0.3628485445887288</v>
       </c>
       <c r="G46" t="n">
-        <v>10285.903980483</v>
+        <v>10285.86553980308</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9096193555900439</v>
+        <v>0.9094939439566567</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         <v>100</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3628509336519437</v>
+        <v>0.3624500738020046</v>
       </c>
       <c r="G47" t="n">
-        <v>10285.47410840441</v>
+        <v>10285.7474239695</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9093516524560644</v>
+        <v>0.9109107191402925</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2111,13 +2111,13 @@
         <v>200</v>
       </c>
       <c r="F48" t="n">
-        <v>0.362593398307095</v>
+        <v>0.3625924359680033</v>
       </c>
       <c r="G48" t="n">
-        <v>10285.95573809351</v>
+        <v>10285.98191809821</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9103527884684802</v>
+        <v>0.9103066202604707</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2146,13 +2146,13 @@
         <v>300</v>
       </c>
       <c r="F49" t="n">
-        <v>0.362873916011079</v>
+        <v>0.3627324542382917</v>
       </c>
       <c r="G49" t="n">
-        <v>10285.32070640001</v>
+        <v>10285.90915809745</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9101897713020281</v>
+        <v>0.9097690754560711</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2181,13 +2181,13 @@
         <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3627024662393684</v>
+        <v>0.362673010311809</v>
       </c>
       <c r="G50" t="n">
-        <v>10285.93116462741</v>
+        <v>10285.95802124282</v>
       </c>
       <c r="H50" t="n">
-        <v>0.909863655518914</v>
+        <v>0.9099653547690374</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2216,13 +2216,13 @@
         <v>200</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3628094734258093</v>
+        <v>0.3628203752540403</v>
       </c>
       <c r="G51" t="n">
-        <v>10285.60857665836</v>
+        <v>10285.85837128309</v>
       </c>
       <c r="H51" t="n">
-        <v>0.909377116968376</v>
+        <v>0.9096038622227883</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2251,13 +2251,13 @@
         <v>300</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3627070963125029</v>
+        <v>0.3626452170902856</v>
       </c>
       <c r="G52" t="n">
-        <v>10285.90386849321</v>
+        <v>10285.98480925686</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9102931176002294</v>
+        <v>0.9101023322611997</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2286,13 +2286,13 @@
         <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3627419374751606</v>
+        <v>0.3627324542382917</v>
       </c>
       <c r="G53" t="n">
-        <v>10285.83072167326</v>
+        <v>10285.90915809746</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9096425512541447</v>
+        <v>0.9097690754560711</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
         <v>200</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3626532029855691</v>
+        <v>0.3628288907740082</v>
       </c>
       <c r="G54" t="n">
-        <v>10285.97509277443</v>
+        <v>10285.73854236573</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9101977893148897</v>
+        <v>0.9100881960482163</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2356,13 +2356,13 @@
         <v>300</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3626753187168084</v>
+        <v>0.3624692494065156</v>
       </c>
       <c r="G55" t="n">
-        <v>10285.95413396983</v>
+        <v>10285.77619618307</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9103429734456602</v>
+        <v>0.9108497573010349</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2391,13 +2391,13 @@
         <v>100</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3615611237664172</v>
+        <v>0.3596168745710606</v>
       </c>
       <c r="G56" t="n">
-        <v>7534.310674797791</v>
+        <v>7536.064227345685</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9681696077256231</v>
+        <v>0.9726334132789271</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2426,13 +2426,13 @@
         <v>200</v>
       </c>
       <c r="F57" t="n">
-        <v>0.347163177957853</v>
+        <v>0.3543694084299821</v>
       </c>
       <c r="G57" t="n">
-        <v>7532.367232633627</v>
+        <v>7535.283035746914</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9955356240970775</v>
+        <v>0.9851418311155916</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2461,13 +2461,13 @@
         <v>300</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3566652572961898</v>
+        <v>0.3607608948043526</v>
       </c>
       <c r="G58" t="n">
-        <v>7536.163201500683</v>
+        <v>7535.808175837174</v>
       </c>
       <c r="H58" t="n">
-        <v>0.979545005439305</v>
+        <v>0.9701649981255601</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3558728334134055</v>
+        <v>0.3570250956946242</v>
       </c>
       <c r="G59" t="n">
-        <v>7535.942333205741</v>
+        <v>7536.045732624199</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9818627954620401</v>
+        <v>0.9787785721138702</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
         <v>200</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3574114365370956</v>
+        <v>0.35889769405913</v>
       </c>
       <c r="G60" t="n">
-        <v>7536.044253053345</v>
+        <v>7535.949002992266</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9784196136044718</v>
+        <v>0.9756301064988362</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2566,13 +2566,13 @@
         <v>300</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3562829192585081</v>
+        <v>0.3597335428758066</v>
       </c>
       <c r="G61" t="n">
-        <v>7535.593527161514</v>
+        <v>7536.08727330993</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9820196605109685</v>
+        <v>0.9724889696922157</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2601,13 +2601,13 @@
         <v>100</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3600780990877608</v>
+        <v>0.3575661156810352</v>
       </c>
       <c r="G62" t="n">
-        <v>7535.983614041817</v>
+        <v>7536.245657664077</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9715058659360601</v>
+        <v>0.9781999198459096</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2636,13 +2636,13 @@
         <v>200</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3595556601033066</v>
+        <v>0.3595761464034891</v>
       </c>
       <c r="G63" t="n">
-        <v>7536.011432312623</v>
+        <v>7536.042389173856</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9728627044325938</v>
+        <v>0.9726725626433911</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2671,13 +2671,13 @@
         <v>300</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3596692938700997</v>
+        <v>0.3559271265550254</v>
       </c>
       <c r="G64" t="n">
-        <v>7536.125839451242</v>
+        <v>7536.137218623456</v>
       </c>
       <c r="H64" t="n">
-        <v>0.972792655088636</v>
+        <v>0.9816239808811847</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         <v>100</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3577176664461034</v>
+        <v>0.3544239654913707</v>
       </c>
       <c r="G65" t="n">
-        <v>7535.972875952559</v>
+        <v>7535.315699199132</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9771493085144695</v>
+        <v>0.9850718780001472</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2741,13 +2741,13 @@
         <v>200</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3543812586825065</v>
+        <v>0.3425889425535327</v>
       </c>
       <c r="G66" t="n">
-        <v>7535.302883598908</v>
+        <v>7532.256098865406</v>
       </c>
       <c r="H66" t="n">
-        <v>0.985053655358664</v>
+        <v>0.9959573747198074</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2776,13 +2776,13 @@
         <v>300</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3541457376653027</v>
+        <v>0.3569055555758239</v>
       </c>
       <c r="G67" t="n">
-        <v>7534.394305423372</v>
+        <v>7536.221975611593</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9856672273141222</v>
+        <v>0.9799674965054038</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2811,13 +2811,13 @@
         <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>0.356455313711812</v>
+        <v>0.3606114989865916</v>
       </c>
       <c r="G68" t="n">
-        <v>7536.206683978246</v>
+        <v>7535.149330884014</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9800881751856497</v>
+        <v>0.9707964269791992</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2846,13 +2846,13 @@
         <v>200</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3446660150659634</v>
+        <v>0.3598492292929648</v>
       </c>
       <c r="G69" t="n">
-        <v>7533.34694266436</v>
+        <v>7535.786044031136</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9970811887875287</v>
+        <v>0.972063565033204</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
         <v>300</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3447200715935373</v>
+        <v>0.3584384964464347</v>
       </c>
       <c r="G70" t="n">
-        <v>7533.446742334987</v>
+        <v>7535.8521164469</v>
       </c>
       <c r="H70" t="n">
-        <v>0.996815435152158</v>
+        <v>0.9767728809303927</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2916,13 +2916,13 @@
         <v>100</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3572374396483554</v>
+        <v>0.3609653005992988</v>
       </c>
       <c r="G71" t="n">
-        <v>7536.231394515384</v>
+        <v>7534.197852938303</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9791436008981144</v>
+        <v>0.9695662012880475</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -2951,13 +2951,13 @@
         <v>200</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3565663992672713</v>
+        <v>0.3561818664133438</v>
       </c>
       <c r="G72" t="n">
-        <v>7536.240322937491</v>
+        <v>7536.202258346757</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9800901706921632</v>
+        <v>0.9812355370344612</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -2986,13 +2986,13 @@
         <v>300</v>
       </c>
       <c r="F73" t="n">
-        <v>0.345318040033368</v>
+        <v>0.3565245646354812</v>
       </c>
       <c r="G73" t="n">
-        <v>7533.294594503473</v>
+        <v>7536.086179341406</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9967268704047907</v>
+        <v>0.9796457555106534</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
